--- a/Manuscript/charts/travel times.xlsx
+++ b/Manuscript/charts/travel times.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19950" windowHeight="13275" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19950" windowHeight="13275" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Diagramm1" sheetId="3" r:id="rId2"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId3"/>
     <sheet name="Goodness of Fit" sheetId="4" r:id="rId4"/>
+    <sheet name="Definitions" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>travel time</t>
   </si>
@@ -63,6 +64,15 @@
   </si>
   <si>
     <t>Observations</t>
+  </si>
+  <si>
+    <t>PMF</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
   </si>
 </sst>
 </file>
@@ -121,6 +131,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFD2AE4A"/>
       <color rgb="FF86E53F"/>
     </mruColors>
   </colors>
@@ -813,11 +824,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="63"/>
-        <c:axId val="463995576"/>
-        <c:axId val="464004200"/>
+        <c:axId val="311878024"/>
+        <c:axId val="311881552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="463995576"/>
+        <c:axId val="311878024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -860,7 +871,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464004200"/>
+        <c:crossAx val="311881552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -869,7 +880,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="464004200"/>
+        <c:axId val="311881552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -920,7 +931,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463995576"/>
+        <c:crossAx val="311878024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1238,11 +1249,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="464003808"/>
-        <c:axId val="464001848"/>
+        <c:axId val="311882336"/>
+        <c:axId val="311876848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="464003808"/>
+        <c:axId val="311882336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1284,7 +1295,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464001848"/>
+        <c:crossAx val="311876848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1292,7 +1303,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="464001848"/>
+        <c:axId val="311876848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1343,7 +1354,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="464003808"/>
+        <c:crossAx val="311882336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2046,8 +2057,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="463993224"/>
-        <c:axId val="463999888"/>
+        <c:axId val="311880768"/>
+        <c:axId val="311881160"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3246,11 +3257,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="463993224"/>
-        <c:axId val="463999888"/>
+        <c:axId val="311880768"/>
+        <c:axId val="311881160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="463993224"/>
+        <c:axId val="311880768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3293,7 +3304,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463999888"/>
+        <c:crossAx val="311881160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3302,7 +3313,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="463999888"/>
+        <c:axId val="311881160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3354,7 +3365,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463993224"/>
+        <c:crossAx val="311880768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3671,8 +3682,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="463995184"/>
-        <c:axId val="463996752"/>
+        <c:axId val="311882728"/>
+        <c:axId val="311878416"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3955,11 +3966,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="463995184"/>
-        <c:axId val="463996752"/>
+        <c:axId val="311882728"/>
+        <c:axId val="311878416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="463995184"/>
+        <c:axId val="311882728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4058,7 +4069,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463996752"/>
+        <c:crossAx val="311878416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4068,7 +4079,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="463996752"/>
+        <c:axId val="311878416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4119,7 +4130,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="463995184"/>
+        <c:crossAx val="311882728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2.0000000000000004E-2"/>
@@ -4184,6 +4195,1544 @@
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="1"/>
+              <a:t>t = t1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18318985126859141"/>
+          <c:y val="0.14592592592592596"/>
+          <c:w val="0.786254593175853"/>
+          <c:h val="0.61793234179060941"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Definitions!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Definitions!$E$3:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Definitions!$F$3:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="370894544"/>
+        <c:axId val="370896112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="370894544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
+                  <a:t>Travel Time (minutes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="370896112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="370896112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
+                  <a:t>Probability</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="370894544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15657895888014001"/>
+          <c:y val="6.8356663750364532E-2"/>
+          <c:w val="0.81286548556430438"/>
+          <c:h val="0.70976560221638962"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Definitions!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="D2AE4A"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Definitions!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Definitions!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Definitions!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>t2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Definitions!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Definitions!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="375730016"/>
+        <c:axId val="375738640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="375730016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
+                  <a:t>Travel Time (minutes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="375738640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="375738640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
+                  <a:t>Probability</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="375730016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.77512817147856516"/>
+          <c:y val="9.7800379119276762E-2"/>
+          <c:w val="0.18220669291338581"/>
+          <c:h val="0.10610637212015164"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17234273840769904"/>
+          <c:y val="6.2708151064450282E-2"/>
+          <c:w val="0.79053127734033235"/>
+          <c:h val="0.68263159813356655"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Definitions!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PMF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="D2AE4A"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Definitions!$A$2:$A$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Definitions!$B$2:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="37"/>
+                <c:pt idx="0">
+                  <c:v>7.3864140198966796E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2010166274348706E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8993310039662405E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.921383415594757E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3703148489515828E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3587705844029944E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.9984944188646766E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2385193926498847E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6579523132124786E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1586265944315293E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7335012445998941E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.3666447592343149E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0328454086523899E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.6985312568383765E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.3241334253725375E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.867755446071659E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.2897204615498872E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.5573286016989987E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.6490380066905455E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.5573286016989987E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.2897204615498872E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.867755446071659E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.3241334253725375E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.6985312568383765E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.0328454086523899E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.3666447592343149E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.7335012445998941E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.1586265944315293E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.6579523132124786E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.2385193926498847E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.9984944188646766E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.3587705844029944E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.3703148489515828E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.921383415594757E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.8993310039662405E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.2010166274348706E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.3864140198966796E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="375391944"/>
+        <c:axId val="375388024"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="375391944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
+                  <a:t>Travel Time (minutes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="375388024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="375388024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" b="1"/>
+                  <a:t>Probability</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="375391944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -4367,6 +5916,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -6065,6 +7734,1515 @@
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6836,6 +10014,101 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>566737</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9270,8 +12543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="A1:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9617,4 +12890,393 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>7.3864140198966796E-4</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>0.04</v>
+      </c>
+      <c r="G2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>1.2010166274348706E-3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>0.1</v>
+      </c>
+      <c r="G3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>1.8993310039662405E-3</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>0.2</v>
+      </c>
+      <c r="G4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>2.921383415594757E-3</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>0.3</v>
+      </c>
+      <c r="G5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>39</v>
+      </c>
+      <c r="B6">
+        <v>4.3703148489515828E-3</v>
+      </c>
+      <c r="E6">
+        <v>7</v>
+      </c>
+      <c r="F6">
+        <v>0.1</v>
+      </c>
+      <c r="G6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>6.3587705844029944E-3</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>0.16</v>
+      </c>
+      <c r="G7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>8.9984944188646766E-3</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8">
+        <v>0.1</v>
+      </c>
+      <c r="G8">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>42</v>
+      </c>
+      <c r="B9">
+        <v>1.2385193926498847E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <v>1.6579523132124786E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>44</v>
+      </c>
+      <c r="B11">
+        <v>2.1586265944315293E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>2.7335012445998941E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>46</v>
+      </c>
+      <c r="B13">
+        <v>3.3666447592343149E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>4.0328454086523899E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>48</v>
+      </c>
+      <c r="B15">
+        <v>4.6985312568383765E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>49</v>
+      </c>
+      <c r="B16">
+        <v>5.3241334253725375E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>50</v>
+      </c>
+      <c r="B17">
+        <v>5.867755446071659E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>51</v>
+      </c>
+      <c r="B18">
+        <v>6.2897204615498872E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>52</v>
+      </c>
+      <c r="B19">
+        <v>6.5573286016989987E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>53</v>
+      </c>
+      <c r="B20">
+        <v>6.6490380066905455E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>54</v>
+      </c>
+      <c r="B21">
+        <v>6.5573286016989987E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>55</v>
+      </c>
+      <c r="B22">
+        <v>6.2897204615498872E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>56</v>
+      </c>
+      <c r="B23">
+        <v>5.867755446071659E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>57</v>
+      </c>
+      <c r="B24">
+        <v>5.3241334253725375E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>58</v>
+      </c>
+      <c r="B25">
+        <v>4.6985312568383765E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>59</v>
+      </c>
+      <c r="B26">
+        <v>4.0328454086523899E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>60</v>
+      </c>
+      <c r="B27">
+        <v>3.3666447592343149E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>61</v>
+      </c>
+      <c r="B28">
+        <v>2.7335012445998941E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>62</v>
+      </c>
+      <c r="B29">
+        <v>2.1586265944315293E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>63</v>
+      </c>
+      <c r="B30">
+        <v>1.6579523132124786E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>64</v>
+      </c>
+      <c r="B31">
+        <v>1.2385193926498847E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>65</v>
+      </c>
+      <c r="B32">
+        <v>8.9984944188646766E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>66</v>
+      </c>
+      <c r="B33">
+        <v>6.3587705844029944E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>67</v>
+      </c>
+      <c r="B34">
+        <v>4.3703148489515828E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>68</v>
+      </c>
+      <c r="B35">
+        <v>2.921383415594757E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>69</v>
+      </c>
+      <c r="B36">
+        <v>1.8993310039662405E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>70</v>
+      </c>
+      <c r="B37">
+        <v>1.2010166274348706E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>71</v>
+      </c>
+      <c r="B38">
+        <v>7.3864140198966796E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>